--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3017325.735653663</v>
+        <v>3014990.624451683</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>22.94971336712987</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,10 +674,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>143.9926124282203</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>56.3083098349818</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>84.25414117115572</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>197.6836481114875</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>138.4227759882135</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>56.01246561959145</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>50.98074812542857</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>126.5388824951718</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.5398680316074</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6353666620236</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428169</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242259</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>126.9927435506632</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.613741235233266</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412178</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532356</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730883</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1798.734238163264</v>
+        <v>867.5113594131255</v>
       </c>
       <c r="C2" t="n">
-        <v>1429.771721222853</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>1071.506022616102</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>685.7177700178579</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>678.7722692686544</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>263.0675189929433</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400156</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400156</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400156</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>2188.873570139076</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y2" t="n">
-        <v>1798.734238163264</v>
+        <v>1254.111199477247</v>
       </c>
     </row>
     <row r="3">
@@ -4389,13 +4389,13 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4404,34 +4404,34 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605191</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919908</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.935112151211</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748156</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924318</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756615</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.24678656800312</v>
+        <v>445.0465148290272</v>
       </c>
       <c r="C4" t="n">
-        <v>51.24678656800312</v>
+        <v>276.1103319011203</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800312</v>
+        <v>276.1103319011203</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800312</v>
+        <v>276.1103319011203</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800312</v>
+        <v>276.1103319011203</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800312</v>
+        <v>108.1238672093989</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1448.757520487902</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1225.779039682638</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1225.779039682638</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V4" t="n">
-        <v>971.0945514767509</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="W4" t="n">
-        <v>681.6773814397902</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="X4" t="n">
-        <v>453.6878305417729</v>
+        <v>445.0465148290272</v>
       </c>
       <c r="Y4" t="n">
-        <v>232.8952513982428</v>
+        <v>445.0465148290272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1059.365742829028</v>
+        <v>1267.498902304191</v>
       </c>
       <c r="C5" t="n">
-        <v>1059.365742829028</v>
+        <v>898.5363853637798</v>
       </c>
       <c r="D5" t="n">
-        <v>859.685290191162</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331018</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4583,34 +4583,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400156</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400156</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.570673130042</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="X5" t="n">
-        <v>1836.104914868962</v>
+        <v>2044.238074344125</v>
       </c>
       <c r="Y5" t="n">
-        <v>1445.96558289315</v>
+        <v>1654.098742368313</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>423.1489515180662</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>717.852508549538</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1468.399656105704</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1800.470091281866</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
         <v>2239.046898434118</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>716.5983551657498</v>
+        <v>444.7476822882288</v>
       </c>
       <c r="C7" t="n">
-        <v>547.6621722378429</v>
+        <v>275.8114993603219</v>
       </c>
       <c r="D7" t="n">
-        <v>397.5455328255072</v>
+        <v>275.8114993603219</v>
       </c>
       <c r="E7" t="n">
-        <v>249.632439243114</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>102.7424917452037</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074498</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074498</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074498</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074498</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037537</v>
+        <v>672.7372331862462</v>
       </c>
       <c r="X7" t="n">
-        <v>1119.03939913952</v>
+        <v>444.7476822882288</v>
       </c>
       <c r="Y7" t="n">
-        <v>898.2468199959895</v>
+        <v>444.7476822882288</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3197.788768583745</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3197.788768583745</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>3197.788768583745</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2824.323010322666</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="11">
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5185,16 +5185,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5267,37 +5267,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5495,22 +5495,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5528,13 +5528,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,16 +5832,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,16 +6218,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,40 +6236,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6440,16 +6440,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,52 +6458,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>268.7034100454488</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>101.5073107603287</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,10 +6710,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6783,22 +6783,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>697.5276345711973</v>
       </c>
     </row>
     <row r="35">
@@ -6911,49 +6911,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>923.4916164683287</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>754.5554335404219</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>754.5554335404219</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>606.6423399580287</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>459.7523924601184</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="38">
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7391,43 +7391,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192508</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>747.3584617859347</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>597.2418223735989</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3287287912058</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3287287912058</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>282.1326295060857</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482838</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="44">
@@ -7625,25 +7625,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
@@ -7652,43 +7652,43 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,19 +8067,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>224.3355197601777</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039159</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9393975111061</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>319.4183821282439</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>193.3273467878341</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>-4.3524558383725e-13</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.2291039219422</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.20633287440191</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194223</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187163</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.6809716109906</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.005313310876971</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903321</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>35.12774237125669</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>734971.155231178</v>
+        <v>734971.1552311779</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>734971.1552311779</v>
+        <v>734971.155231178</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>734971.1552311779</v>
+        <v>734971.155231178</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>734971.1552311779</v>
+        <v>734971.155231178</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>734971.1552311779</v>
+        <v>734971.155231178</v>
       </c>
     </row>
     <row r="16">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>697885.5043846406</v>
+      </c>
+      <c r="C2" t="n">
         <v>697885.5043846407</v>
       </c>
-      <c r="C2" t="n">
-        <v>697885.5043846406</v>
-      </c>
       <c r="D2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="F2" t="n">
         <v>686074.6097365057</v>
-      </c>
-      <c r="F2" t="n">
-        <v>686074.6097365058</v>
       </c>
       <c r="G2" t="n">
         <v>686074.6097365057</v>
@@ -26335,25 +26335,25 @@
         <v>686074.6097365057</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="L2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="M2" t="n">
+        <v>686074.609736506</v>
+      </c>
+      <c r="N2" t="n">
         <v>686074.6097365058</v>
       </c>
-      <c r="M2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365057</v>
-      </c>
       <c r="O2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.609736506</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365061</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099828</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.97000819066</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,31 +26421,31 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810783</v>
+        <v>88524.23512810789</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756581</v>
+        <v>9337.200356756583</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756632</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756632</v>
+        <v>9337.200356756626</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756603</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756632</v>
+        <v>9337.200356756552</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756541</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756552</v>
       </c>
       <c r="M4" t="n">
         <v>9337.200356756592</v>
@@ -26454,7 +26454,7 @@
         <v>9337.200356756613</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756613</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
         <v>9337.200356756592</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-646530.3253232264</v>
+        <v>-646530.325323226</v>
       </c>
       <c r="C6" t="n">
         <v>468221.4582526935</v>
       </c>
       <c r="D6" t="n">
-        <v>308800.188254802</v>
+        <v>308800.1882548016</v>
       </c>
       <c r="E6" t="n">
-        <v>250202.4177484869</v>
+        <v>250167.6798230512</v>
       </c>
       <c r="F6" t="n">
-        <v>575614.879555842</v>
+        <v>575580.1416304064</v>
       </c>
       <c r="G6" t="n">
-        <v>575614.8795558419</v>
+        <v>575580.1416304064</v>
       </c>
       <c r="H6" t="n">
-        <v>575614.8795558421</v>
+        <v>575580.1416304065</v>
       </c>
       <c r="I6" t="n">
-        <v>575614.879555842</v>
+        <v>575580.1416304064</v>
       </c>
       <c r="J6" t="n">
-        <v>408009.7017458591</v>
+        <v>407974.9638204233</v>
       </c>
       <c r="K6" t="n">
-        <v>575614.8795558418</v>
+        <v>575580.1416304065</v>
       </c>
       <c r="L6" t="n">
-        <v>527320.9095476514</v>
+        <v>527286.1716222157</v>
       </c>
       <c r="M6" t="n">
-        <v>490559.8516203303</v>
+        <v>490525.1136948948</v>
       </c>
       <c r="N6" t="n">
-        <v>575614.879555842</v>
+        <v>575580.1416304065</v>
       </c>
       <c r="O6" t="n">
-        <v>575614.879555842</v>
+        <v>575580.1416304067</v>
       </c>
       <c r="P6" t="n">
-        <v>575614.879555842</v>
+        <v>575580.141630407</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,10 +26811,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>342.3231784038777</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>157.0259401341851</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,10 +27549,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>90.94319932014707</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>110.4083191905817</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>156.9993935091954</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>231.3083246902555</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>90.42149702697773</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>115.3258519193756</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27822,16 +27822,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>124.4562894637302</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468616</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>24.7856813609076</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9.089173092330179e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,25 +31203,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,25 +31440,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200306</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>160.6314956130963</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31996,7 +31996,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663279</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
         <v>699.5441750817575</v>
@@ -32075,19 +32075,19 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>453.7122424932254</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,22 +32315,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>383.9182138639289</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32476,7 +32476,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M20" t="n">
         <v>965.6463440175675</v>
@@ -32552,19 +32552,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32713,7 +32713,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
         <v>965.6463440175675</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>453.4978307576758</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,7 +32810,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263848</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153327</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120936</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>345.1232217852615</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>622.4211036182644</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>322.7581251332984</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34466,10 +34466,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560635</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>615.5326193530516</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>255.4201198419607</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434849</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378503</v>
+        <v>617.098742766094</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>443.0068759113664</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
         <v>479.454324036777</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>322.3705304098921</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924728</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36124,7 +36124,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36361,7 +36361,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>314.9434509778017</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>182.4093308120545</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319995</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287602</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>211.1488143709312</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>483.8667238383903</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38114,10 +38114,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
